--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\niitjava\com.Amazon.Test\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A6AE8-1E31-41FB-84DC-F531EFA69115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E6DA63-E622-46F7-A8E5-D476354308B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,48 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>testcase1</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>testexcel.xlsx</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Testcase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,19 +75,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -388,43 +368,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0E82E317-D8CC-4141-AA84-7028057073C1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>